--- a/data/trans_dic/P40_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.7092970606412228</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6944504407853805</v>
+        <v>0.6944504407853804</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7727027657368156</v>
@@ -697,7 +697,7 @@
         <v>0.7685104853277956</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7308864308035955</v>
+        <v>0.7308864308035956</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7942870108919398</v>
+        <v>0.7931873911539753</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7810019392053212</v>
+        <v>0.782048493696771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7990435422216563</v>
+        <v>0.7983266130477454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7373843074482991</v>
+        <v>0.7361647821530534</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6861986044274538</v>
+        <v>0.6864565628736754</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6845551484264978</v>
+        <v>0.6875317158215162</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6716640243062717</v>
+        <v>0.6711518127389048</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6677787140369013</v>
+        <v>0.6650707479324109</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7481090036886064</v>
+        <v>0.7504758673872091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7447216128987747</v>
+        <v>0.7468728338434368</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7446188036964954</v>
+        <v>0.7456122453322825</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.709705146479944</v>
+        <v>0.7096316430959334</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8500233830744547</v>
+        <v>0.8516483910754102</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8432624206558774</v>
+        <v>0.843237899697212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8562033842338801</v>
+        <v>0.8560104010257998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7996070564130109</v>
+        <v>0.799162576720423</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7531725980551001</v>
+        <v>0.7530538265860158</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7558878508595011</v>
+        <v>0.7574896468251877</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7423532412472934</v>
+        <v>0.7444307105782434</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7194840887933623</v>
+        <v>0.7177639272287071</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7931291708650542</v>
+        <v>0.7945551915074156</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7921728511131901</v>
+        <v>0.7912819664564842</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7902123501453912</v>
+        <v>0.7911359371320895</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7515000526480357</v>
+        <v>0.7516010580925047</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8217272521150405</v>
+        <v>0.8235364344738496</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8106340530480646</v>
+        <v>0.8126071596612239</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8206101705006126</v>
+        <v>0.8207286583006441</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8162671064526196</v>
+        <v>0.8161211086431839</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6461284475271126</v>
+        <v>0.6414611040815368</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7064231079011231</v>
+        <v>0.7034195645698691</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.72730242564921</v>
+        <v>0.7242395944261875</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7003756488398443</v>
+        <v>0.7027975860369217</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7408369708983233</v>
+        <v>0.7401734828674856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.766718596761894</v>
+        <v>0.7675306342879401</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7810673599490656</v>
+        <v>0.7823127719581617</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7646247990159003</v>
+        <v>0.7672862622259091</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8687439592754729</v>
+        <v>0.8700403832161973</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8607493060252408</v>
+        <v>0.8612416011618915</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8673882691340783</v>
+        <v>0.8640395284690501</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8614104315669991</v>
+        <v>0.8585385810774281</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7086827342133086</v>
+        <v>0.7055885905053748</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7608218604180853</v>
+        <v>0.7649692833402311</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7814795446710826</v>
+        <v>0.7809567823347094</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7475020245761156</v>
+        <v>0.7488159825255789</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.778738530404859</v>
+        <v>0.7786486837800142</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8042044951821629</v>
+        <v>0.8051294314474562</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8194716665364852</v>
+        <v>0.8187296511338736</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7974661360701726</v>
+        <v>0.7983523944617675</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8444474850280077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8239708332205696</v>
+        <v>0.8239708332205697</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7554242209951695</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8225086792965208</v>
+        <v>0.8205886432976022</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8103475345872411</v>
+        <v>0.8116602177861504</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8158753296865535</v>
+        <v>0.8149783429999403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7933380269585473</v>
+        <v>0.7914370903192784</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7204527761588505</v>
+        <v>0.721547681468979</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6983986399035709</v>
+        <v>0.7004483096240929</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7470237533639918</v>
+        <v>0.7461183042331542</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7245457506791214</v>
+        <v>0.7256435477404304</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7786660346011943</v>
+        <v>0.7804884102526674</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7641889045163927</v>
+        <v>0.7644850806919173</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7894654861662698</v>
+        <v>0.7888207150147317</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7684364968774831</v>
+        <v>0.7682699368068298</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8760681495927093</v>
+        <v>0.8781840183630639</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8702281207476582</v>
+        <v>0.8709974712579721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8698450238676871</v>
+        <v>0.8685693091791088</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8524414197602305</v>
+        <v>0.8504325370098412</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.787654042837012</v>
+        <v>0.7833722438285649</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7677717707419132</v>
+        <v>0.7650156394837464</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8091031602471652</v>
+        <v>0.8100216643159321</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7796338534097506</v>
+        <v>0.7823111344828788</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8233628225861541</v>
+        <v>0.8226034275322041</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8075284058424979</v>
+        <v>0.8098096707337413</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8312718795537131</v>
+        <v>0.8291719630958583</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8092819196967255</v>
+        <v>0.8083013065746323</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8414081962180426</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8090863520526843</v>
+        <v>0.8090863520526844</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7215971784249161</v>
@@ -1093,7 +1093,7 @@
         <v>0.7457709156711095</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7222188238835664</v>
+        <v>0.7222188238835665</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7781211431740356</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.817026290997149</v>
+        <v>0.8168482068883087</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8009455570828256</v>
+        <v>0.799692133054815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8175178607751811</v>
+        <v>0.820024547171201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7844013179894278</v>
+        <v>0.7838791935427403</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6945511977091616</v>
+        <v>0.6905880742487083</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.69956087241233</v>
+        <v>0.7033198753726522</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7167227437186069</v>
+        <v>0.718120439839225</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6983095981254086</v>
+        <v>0.6986674349827977</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7605096471817603</v>
+        <v>0.7598503137810286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7562019989056878</v>
+        <v>0.7550392323209227</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7715946746924158</v>
+        <v>0.7715913932703787</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7456001431158017</v>
+        <v>0.747076932161134</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.865372089762472</v>
+        <v>0.8609378992242285</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8498146301197251</v>
+        <v>0.8503236592429591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.864447835117191</v>
+        <v>0.8659987723994826</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8334167039551093</v>
+        <v>0.832784452823788</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.748773270363106</v>
+        <v>0.7498987657321741</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7549199987404662</v>
+        <v>0.7558344596365286</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7770081031925571</v>
+        <v>0.7739081883905684</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7441020161626293</v>
+        <v>0.7433462412603354</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7954726995785979</v>
+        <v>0.7980384517885284</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7947782634284106</v>
+        <v>0.7945313590316025</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8098990370551804</v>
+        <v>0.8100025026003891</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7790266740048392</v>
+        <v>0.7793435820764985</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.7486477457633723</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7245920264690666</v>
+        <v>0.7245920264690668</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7766200149556407</v>
@@ -1241,7 +1241,7 @@
         <v>0.7935580375637131</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7678555966844084</v>
+        <v>0.7678555966844085</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8270560069266663</v>
+        <v>0.8268632092739383</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8175967122012225</v>
+        <v>0.816489304594389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8289392943667365</v>
+        <v>0.8281580914550353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7989397497869494</v>
+        <v>0.8000557284757057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6988692319201895</v>
+        <v>0.7001548348716669</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.714854076230575</v>
+        <v>0.714155050566625</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7345672856744333</v>
+        <v>0.7328845429672535</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7121131892733056</v>
+        <v>0.7125947703636984</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7658304141338215</v>
+        <v>0.7663484795343316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7701002813123101</v>
+        <v>0.7679220652449829</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7833676038147005</v>
+        <v>0.7840844914466177</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7598140738137475</v>
+        <v>0.7583420554147771</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8530764651913789</v>
+        <v>0.8523683195355858</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8452096663572957</v>
+        <v>0.843138349045967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8525843278857751</v>
+        <v>0.8531600939909899</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8252376879860372</v>
+        <v>0.8273050645479573</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7309283245570711</v>
+        <v>0.7301357637525615</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7454579188279417</v>
+        <v>0.7453587071804041</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7644589988507918</v>
+        <v>0.7633474641773632</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7365466000263108</v>
+        <v>0.736538158637827</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7870204204303629</v>
+        <v>0.786570472685741</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7900951318382322</v>
+        <v>0.7890874197700382</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8035835657278116</v>
+        <v>0.8036791583170164</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7774249908741581</v>
+        <v>0.77655269530547</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>551245</v>
+        <v>550482</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>544986</v>
+        <v>545717</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>535037</v>
+        <v>534557</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>509319</v>
+        <v>508476</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>472345</v>
+        <v>472523</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>474316</v>
+        <v>476378</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>449062</v>
+        <v>448720</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>489296</v>
+        <v>487312</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1034158</v>
+        <v>1037430</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1035673</v>
+        <v>1038665</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>996433</v>
+        <v>997763</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1010216</v>
+        <v>1010112</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>589926</v>
+        <v>591054</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>588432</v>
+        <v>588415</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>573311</v>
+        <v>573182</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>552297</v>
+        <v>551990</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>518447</v>
+        <v>518365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>523741</v>
+        <v>524851</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>496324</v>
+        <v>497713</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>527182</v>
+        <v>525921</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1096392</v>
+        <v>1098364</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1101663</v>
+        <v>1100424</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1057446</v>
+        <v>1058681</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1069708</v>
+        <v>1069852</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>789516</v>
+        <v>791255</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>815029</v>
+        <v>817012</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>835800</v>
+        <v>835921</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>856196</v>
+        <v>856043</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>625706</v>
+        <v>621186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>726112</v>
+        <v>723025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>752091</v>
+        <v>748924</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>749989</v>
+        <v>752582</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1429218</v>
+        <v>1427938</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1558963</v>
+        <v>1560614</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1603213</v>
+        <v>1605770</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1620817</v>
+        <v>1626459</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>834690</v>
+        <v>835936</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>865415</v>
+        <v>865910</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>883444</v>
+        <v>880034</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>903548</v>
+        <v>900536</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>686283</v>
+        <v>683287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>782027</v>
+        <v>786290</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>808115</v>
+        <v>807574</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>800454</v>
+        <v>801861</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1502338</v>
+        <v>1502164</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1635183</v>
+        <v>1637063</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1682042</v>
+        <v>1680519</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1690433</v>
+        <v>1692311</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>557303</v>
+        <v>556002</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>603518</v>
+        <v>604496</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>618776</v>
+        <v>618096</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>637108</v>
+        <v>635582</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>491387</v>
+        <v>492134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>539303</v>
+        <v>540885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>580541</v>
+        <v>579837</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>588519</v>
+        <v>589411</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1058688</v>
+        <v>1061166</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1159247</v>
+        <v>1159696</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1212270</v>
+        <v>1211280</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1241280</v>
+        <v>1241011</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>593593</v>
+        <v>595027</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>648115</v>
+        <v>648688</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>659708</v>
+        <v>658740</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>684573</v>
+        <v>682959</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>537222</v>
+        <v>534301</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>592873</v>
+        <v>590744</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>628785</v>
+        <v>629499</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>633265</v>
+        <v>635439</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1119459</v>
+        <v>1118426</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1224992</v>
+        <v>1228452</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1276466</v>
+        <v>1273242</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1307259</v>
+        <v>1305675</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>769100</v>
+        <v>768933</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>748433</v>
+        <v>747262</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>757580</v>
+        <v>759903</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>776606</v>
+        <v>776089</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>721369</v>
+        <v>717253</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>729065</v>
+        <v>732982</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>741433</v>
+        <v>742879</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>781437</v>
+        <v>781838</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1505774</v>
+        <v>1504469</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1494718</v>
+        <v>1492420</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1513221</v>
+        <v>1513214</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1572548</v>
+        <v>1575663</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>814610</v>
+        <v>810436</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>794098</v>
+        <v>794574</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>801069</v>
+        <v>802506</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>825134</v>
+        <v>824508</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>777685</v>
+        <v>778854</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>786759</v>
+        <v>787712</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>803797</v>
+        <v>800590</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>832681</v>
+        <v>831835</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1574999</v>
+        <v>1580079</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1570968</v>
+        <v>1570480</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1588342</v>
+        <v>1588545</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1643048</v>
+        <v>1643717</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2707550</v>
+        <v>2706919</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2765460</v>
+        <v>2761715</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2796186</v>
+        <v>2793551</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2822464</v>
+        <v>2826406</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2360367</v>
+        <v>2364709</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2527100</v>
+        <v>2524629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2581475</v>
+        <v>2575561</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2659643</v>
+        <v>2661442</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5093637</v>
+        <v>5097083</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5327209</v>
+        <v>5312141</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5395437</v>
+        <v>5400374</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5522041</v>
+        <v>5511343</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2792733</v>
+        <v>2790415</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2858859</v>
+        <v>2851853</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2875946</v>
+        <v>2877888</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2915368</v>
+        <v>2922672</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2468644</v>
+        <v>2465967</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2635288</v>
+        <v>2634938</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2686523</v>
+        <v>2682617</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2750898</v>
+        <v>2750867</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5234574</v>
+        <v>5231582</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5465524</v>
+        <v>5458553</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5534674</v>
+        <v>5535332</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5650031</v>
+        <v>5643691</v>
       </c>
     </row>
     <row r="24">
